--- a/outputs-HGR-r202/g__Parasutterella.xlsx
+++ b/outputs-HGR-r202/g__Parasutterella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +860,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +895,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +930,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -895,6 +965,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +1000,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -955,6 +1035,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -985,6 +1070,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1015,6 +1105,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1045,6 +1140,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1075,6 +1175,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1105,6 +1210,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1135,6 +1245,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1165,6 +1280,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1195,6 +1315,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1350,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1255,6 +1385,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1420,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1315,6 +1455,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1490,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1375,6 +1525,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1405,6 +1560,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1435,6 +1595,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1465,6 +1630,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1495,6 +1665,11 @@
           <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1525,6 +1700,11 @@
           <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp900552195</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1551,6 +1731,11 @@
         <v>0.5797914983608828</v>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>s__Parasutterella sp000980495</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>s__Parasutterella sp000980495</t>
         </is>

--- a/outputs-HGR-r202/g__Parasutterella.xlsx
+++ b/outputs-HGR-r202/g__Parasutterella.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp900552195(reject)</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp900552195(reject)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp900552195(reject)</t>
         </is>
       </c>
     </row>
